--- a/Estandarización.xlsx
+++ b/Estandarización.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA5EEC9-78B0-43D9-9452-2C7AF25D24E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2D0A8-E1A0-4122-901E-863229C812AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Clasificacion sigfe'!$A$1:$E$269</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Glosas QV a Tableau'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja1!$A$1:$B$487</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SS y Establ QV a Tableau'!$A$1:$J$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SS y Establ QV a Tableau'!$A$1:$J$260</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3318" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1225">
   <si>
     <t>Glosas</t>
   </si>
@@ -3733,6 +3733,9 @@
   </si>
   <si>
     <t>Contingencias Operacionales</t>
+  </si>
+  <si>
+    <t>104005 Hospital Ancud</t>
   </si>
 </sst>
 </file>
@@ -4475,11 +4478,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C68073C-7FC0-4F5F-8139-F598B8F4DC5B}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:J259"/>
+  <dimension ref="A1:J260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F266" sqref="F266"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10447,7 +10450,7 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+      <c r="A187" s="3">
         <v>104</v>
       </c>
       <c r="B187" s="1">
@@ -10456,30 +10459,30 @@
       <c r="C187" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="3">
         <v>104</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187" s="3">
         <v>104</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>756</v>
+        <v>1224</v>
       </c>
       <c r="I187">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="J187" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+      <c r="A188" s="2">
         <v>104</v>
       </c>
       <c r="B188" s="1">
@@ -10488,62 +10491,62 @@
       <c r="C188" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D188" s="2">
         <v>104</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F188" s="3">
+      <c r="F188" s="2">
         <v>104</v>
       </c>
       <c r="G188" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="I188">
+        <v>1072</v>
+      </c>
+      <c r="J188" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>104</v>
+      </c>
+      <c r="B189" s="1">
+        <v>53</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D189" s="3">
+        <v>104</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F189" s="3">
+        <v>104</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="I188">
+      <c r="I189">
         <v>1073</v>
       </c>
-      <c r="J188" t="s">
+      <c r="J189" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>111</v>
-      </c>
-      <c r="B189" s="1">
-        <v>40</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D189" s="1">
-        <v>111</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F189" s="1">
-        <v>111</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="I189">
-        <v>1101</v>
-      </c>
-      <c r="J189" t="s">
-        <v>484</v>
-      </c>
-    </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+      <c r="A190" s="1">
         <v>111</v>
       </c>
       <c r="B190" s="1">
@@ -10552,26 +10555,26 @@
       <c r="C190" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D190" s="3">
+      <c r="D190" s="1">
         <v>111</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F190" s="3">
+      <c r="F190" s="1">
         <v>111</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I190">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J190" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -10594,16 +10597,16 @@
         <v>111</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I191">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="J191" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -10626,16 +10629,16 @@
         <v>111</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I192">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="J192" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -10658,16 +10661,16 @@
         <v>111</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I193">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J193" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -10690,16 +10693,16 @@
         <v>111</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I194">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J194" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -10722,20 +10725,20 @@
         <v>111</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I195">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J195" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+      <c r="A196" s="3">
         <v>111</v>
       </c>
       <c r="B196" s="1">
@@ -10744,26 +10747,26 @@
       <c r="C196" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="3">
         <v>111</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196" s="3">
         <v>111</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I196">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J196" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -10786,48 +10789,48 @@
         <v>111</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I197">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J197" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B198" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="D198" s="2">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F198" s="2">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I198">
-        <v>1206</v>
+        <v>1121</v>
       </c>
       <c r="J198" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -10850,16 +10853,16 @@
         <v>121</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>536</v>
+        <v>246</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I199">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="J199" t="s">
-        <v>540</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -10882,16 +10885,16 @@
         <v>121</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I200">
-        <v>1202</v>
+        <v>1217</v>
       </c>
       <c r="J200" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -10914,16 +10917,16 @@
         <v>121</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I201">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="J201" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -10949,13 +10952,13 @@
         <v>538</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="I202" s="9">
-        <v>1204</v>
+        <v>770</v>
+      </c>
+      <c r="I202">
+        <v>1201</v>
       </c>
       <c r="J202" t="s">
-        <v>830</v>
+        <v>542</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -10981,17 +10984,17 @@
         <v>538</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="I203" s="9">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J203" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+      <c r="A204" s="2">
         <v>121</v>
       </c>
       <c r="B204" s="1">
@@ -11000,62 +11003,62 @@
       <c r="C204" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D204" s="3">
+      <c r="D204" s="2">
         <v>121</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F204" s="3">
+      <c r="F204" s="2">
         <v>121</v>
       </c>
       <c r="G204" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I204" s="9">
+        <v>1205</v>
+      </c>
+      <c r="J204" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>121</v>
+      </c>
+      <c r="B205" s="1">
+        <v>41</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D205" s="3">
+        <v>121</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F205" s="3">
+        <v>121</v>
+      </c>
+      <c r="G205" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="I204">
+      <c r="I205">
         <v>1216</v>
       </c>
-      <c r="J204" t="s">
+      <c r="J205" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>131</v>
-      </c>
-      <c r="B205" s="1">
-        <v>42</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D205" s="1">
-        <v>131</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F205" s="1">
-        <v>131</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="I205">
-        <v>517</v>
-      </c>
-      <c r="J205" t="s">
-        <v>494</v>
-      </c>
-    </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+      <c r="A206" s="1">
         <v>131</v>
       </c>
       <c r="B206" s="1">
@@ -11064,26 +11067,26 @@
       <c r="C206" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D206" s="3">
+      <c r="D206" s="1">
         <v>131</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F206" s="3">
+      <c r="F206" s="1">
         <v>131</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I206">
-        <v>1301</v>
+        <v>517</v>
       </c>
       <c r="J206" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -11106,16 +11109,16 @@
         <v>131</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I207">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="J207" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -11138,16 +11141,16 @@
         <v>131</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I208">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="J208" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -11170,16 +11173,16 @@
         <v>131</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I209">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J209" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -11202,16 +11205,16 @@
         <v>131</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I210">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="J210" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -11234,20 +11237,20 @@
         <v>131</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I211">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J211" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+      <c r="A212" s="3">
         <v>131</v>
       </c>
       <c r="B212" s="1">
@@ -11256,30 +11259,30 @@
       <c r="C212" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="3">
         <v>131</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212" s="3">
         <v>131</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I212">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J212" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+      <c r="A213" s="2">
         <v>131</v>
       </c>
       <c r="B213" s="1">
@@ -11288,62 +11291,62 @@
       <c r="C213" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D213" s="3">
+      <c r="D213" s="2">
         <v>131</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="F213" s="3">
+      <c r="F213" s="2">
         <v>131</v>
       </c>
       <c r="G213" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="I213">
+        <v>1309</v>
+      </c>
+      <c r="J213" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>131</v>
+      </c>
+      <c r="B214" s="1">
+        <v>42</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D214" s="3">
+        <v>131</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F214" s="3">
+        <v>131</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="H214" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="I213">
+      <c r="I214">
         <v>1313</v>
       </c>
-      <c r="J213" t="s">
+      <c r="J214" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>132</v>
-      </c>
-      <c r="B214" s="1">
-        <v>43</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D214" s="1">
-        <v>132</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F214" s="1">
-        <v>132</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="I214">
-        <v>1315</v>
-      </c>
-      <c r="J214" t="s">
-        <v>503</v>
-      </c>
-    </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+      <c r="A215" s="1">
         <v>132</v>
       </c>
       <c r="B215" s="1">
@@ -11352,26 +11355,26 @@
       <c r="C215" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D215" s="3">
+      <c r="D215" s="1">
         <v>132</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F215" s="3">
+      <c r="F215" s="1">
         <v>132</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I215">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J215" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -11394,16 +11397,16 @@
         <v>132</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I216">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J216" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -11426,20 +11429,20 @@
         <v>132</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I217">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J217" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+      <c r="A218" s="3">
         <v>132</v>
       </c>
       <c r="B218" s="1">
@@ -11448,30 +11451,30 @@
       <c r="C218" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="3">
         <v>132</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218" s="3">
         <v>132</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I218">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J218" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+      <c r="A219" s="2">
         <v>132</v>
       </c>
       <c r="B219" s="1">
@@ -11480,62 +11483,62 @@
       <c r="C219" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D219" s="3">
+      <c r="D219" s="2">
         <v>132</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="F219" s="3">
+      <c r="F219" s="2">
         <v>132</v>
       </c>
       <c r="G219" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="I219">
+        <v>1319</v>
+      </c>
+      <c r="J219" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>132</v>
+      </c>
+      <c r="B220" s="1">
+        <v>43</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D220" s="3">
+        <v>132</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F220" s="3">
+        <v>132</v>
+      </c>
+      <c r="G220" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="H219" s="1" t="s">
+      <c r="H220" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="I219">
+      <c r="I220">
         <v>1325</v>
       </c>
-      <c r="J219" t="s">
+      <c r="J220" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>133</v>
-      </c>
-      <c r="B220" s="1">
-        <v>44</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D220" s="1">
-        <v>133</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="F220" s="1">
-        <v>133</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="I220">
-        <v>1330</v>
-      </c>
-      <c r="J220" t="s">
-        <v>509</v>
-      </c>
-    </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+      <c r="A221" s="1">
         <v>133</v>
       </c>
       <c r="B221" s="1">
@@ -11544,26 +11547,26 @@
       <c r="C221" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D221" s="3">
+      <c r="D221" s="1">
         <v>133</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F221" s="3">
+      <c r="F221" s="1">
         <v>133</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I221">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="J221" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -11586,16 +11589,16 @@
         <v>133</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I222">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="J222" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -11618,16 +11621,16 @@
         <v>133</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I223">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="J223" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -11650,20 +11653,20 @@
         <v>133</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I224">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J224" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+      <c r="A225" s="3">
         <v>133</v>
       </c>
       <c r="B225" s="1">
@@ -11672,30 +11675,30 @@
       <c r="C225" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="3">
         <v>133</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F225" s="2">
+      <c r="F225" s="3">
         <v>133</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I225">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J225" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+      <c r="A226" s="2">
         <v>133</v>
       </c>
       <c r="B226" s="1">
@@ -11704,62 +11707,62 @@
       <c r="C226" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D226" s="3">
+      <c r="D226" s="2">
         <v>133</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="F226" s="3">
+      <c r="F226" s="2">
         <v>133</v>
       </c>
       <c r="G226" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="I226">
+        <v>1340</v>
+      </c>
+      <c r="J226" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>133</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D227" s="3">
+        <v>133</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F227" s="3">
+        <v>133</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="H226" s="1" t="s">
+      <c r="H227" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="I226">
+      <c r="I227">
         <v>1341</v>
       </c>
-      <c r="J226" t="s">
+      <c r="J227" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>134</v>
-      </c>
-      <c r="B227" s="1">
-        <v>45</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D227" s="1">
-        <v>134</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F227" s="1">
-        <v>134</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="I227">
-        <v>1345</v>
-      </c>
-      <c r="J227" t="s">
-        <v>516</v>
-      </c>
-    </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+      <c r="A228" s="1">
         <v>134</v>
       </c>
       <c r="B228" s="1">
@@ -11768,26 +11771,26 @@
       <c r="C228" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D228" s="3">
+      <c r="D228" s="1">
         <v>134</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F228" s="3">
+      <c r="F228" s="1">
         <v>134</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I228">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="J228" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -11810,16 +11813,16 @@
         <v>134</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I229">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="J229" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -11842,16 +11845,16 @@
         <v>134</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I230">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="J230" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -11874,20 +11877,20 @@
         <v>134</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I231">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="J231" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="A232" s="3">
         <v>134</v>
       </c>
       <c r="B232" s="1">
@@ -11896,30 +11899,30 @@
       <c r="C232" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232" s="3">
         <v>134</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F232" s="2">
+      <c r="F232" s="3">
         <v>134</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I232">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="J232" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+      <c r="A233" s="2">
         <v>134</v>
       </c>
       <c r="B233" s="1">
@@ -11928,62 +11931,62 @@
       <c r="C233" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D233" s="2">
         <v>134</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="F233" s="3">
+      <c r="F233" s="2">
         <v>134</v>
       </c>
       <c r="G233" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="I233">
+        <v>1357</v>
+      </c>
+      <c r="J233" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>134</v>
+      </c>
+      <c r="B234" s="1">
+        <v>45</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D234" s="3">
+        <v>134</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F234" s="3">
+        <v>134</v>
+      </c>
+      <c r="G234" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H233" s="1" t="s">
+      <c r="H234" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="I233">
+      <c r="I234">
         <v>1358</v>
       </c>
-      <c r="J233" t="s">
+      <c r="J234" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>135</v>
-      </c>
-      <c r="B234" s="1">
-        <v>46</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D234" s="1">
-        <v>135</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="F234" s="1">
-        <v>135</v>
-      </c>
-      <c r="G234" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="I234">
-        <v>1360</v>
-      </c>
-      <c r="J234" t="s">
-        <v>522</v>
-      </c>
-    </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="A235" s="1">
         <v>135</v>
       </c>
       <c r="B235" s="1">
@@ -11992,26 +11995,26 @@
       <c r="C235" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D235" s="3">
+      <c r="D235" s="1">
         <v>135</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F235" s="3">
+      <c r="F235" s="1">
         <v>135</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I235">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="J235" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -12034,16 +12037,16 @@
         <v>135</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I236">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="J236" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -12066,16 +12069,16 @@
         <v>135</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I237">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J237" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -12098,16 +12101,16 @@
         <v>135</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I238">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="J238" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -12130,16 +12133,16 @@
         <v>135</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I239">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="J239" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -12162,16 +12165,16 @@
         <v>135</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I240">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="J240" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -12194,20 +12197,20 @@
         <v>135</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I241">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J241" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+      <c r="A242" s="3">
         <v>135</v>
       </c>
       <c r="B242" s="1">
@@ -12216,30 +12219,30 @@
       <c r="C242" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="3">
         <v>135</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F242" s="2">
+      <c r="F242" s="3">
         <v>135</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H242" s="1" t="e">
-        <v>#N/A</v>
+        <v>287</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>808</v>
       </c>
       <c r="I242">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J242" t="s">
-        <v>833</v>
+        <v>529</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+      <c r="A243" s="2">
         <v>135</v>
       </c>
       <c r="B243" s="1">
@@ -12248,62 +12251,62 @@
       <c r="C243" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D243" s="3">
+      <c r="D243" s="2">
         <v>135</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F243" s="3">
+      <c r="F243" s="2">
         <v>135</v>
       </c>
       <c r="G243" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="H243" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I243">
+        <v>1376</v>
+      </c>
+      <c r="J243" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>135</v>
+      </c>
+      <c r="B244" s="1">
+        <v>46</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D244" s="3">
+        <v>135</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F244" s="3">
+        <v>135</v>
+      </c>
+      <c r="G244" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H243" s="1" t="s">
+      <c r="H244" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="I243">
+      <c r="I244">
         <v>1379</v>
       </c>
-      <c r="J243" t="s">
+      <c r="J244" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>137</v>
-      </c>
-      <c r="B244" s="1">
-        <v>47</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D244" s="1">
-        <v>137</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F244" s="1">
-        <v>137</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="I244">
-        <v>1390</v>
-      </c>
-      <c r="J244" t="s">
-        <v>531</v>
-      </c>
-    </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+      <c r="A245" s="1">
         <v>137</v>
       </c>
       <c r="B245" s="1">
@@ -12312,26 +12315,26 @@
       <c r="C245" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D245" s="3">
+      <c r="D245" s="1">
         <v>137</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F245" s="3">
+      <c r="F245" s="1">
         <v>137</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I245">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="J245" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -12354,20 +12357,20 @@
         <v>137</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I246">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="J246" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+      <c r="A247" s="3">
         <v>137</v>
       </c>
       <c r="B247" s="1">
@@ -12376,26 +12379,26 @@
       <c r="C247" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="3">
         <v>137</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247" s="3">
         <v>137</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I247">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J247" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -12418,16 +12421,16 @@
         <v>137</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="I248">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J248" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -12449,17 +12452,17 @@
       <c r="F249" s="2">
         <v>137</v>
       </c>
-      <c r="G249" s="10">
-        <v>0</v>
-      </c>
-      <c r="H249" s="10">
-        <v>0</v>
+      <c r="G249" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="I249">
-        <v>1391</v>
+        <v>1398</v>
       </c>
       <c r="J249" t="s">
-        <v>835</v>
+        <v>535</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -12488,138 +12491,138 @@
         <v>0</v>
       </c>
       <c r="I250">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="J250" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
+        <v>137</v>
+      </c>
+      <c r="B251" s="1">
+        <v>47</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D251" s="2">
+        <v>137</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F251" s="2">
+        <v>137</v>
+      </c>
+      <c r="G251" s="10">
+        <v>0</v>
+      </c>
+      <c r="H251" s="10">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>1395</v>
+      </c>
+      <c r="J251" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="2">
         <v>1314</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B252" s="1">
         <v>52</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D252" s="2">
         <v>1314</v>
       </c>
-      <c r="E251" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F251" s="2">
+      <c r="F252" s="2">
         <v>1314</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="G252" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H251" s="1" t="s">
+      <c r="H252" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="I251">
+      <c r="I252">
         <v>1314</v>
       </c>
-      <c r="J251" t="s">
+      <c r="J252" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
         <v>1320</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B253" s="1">
         <v>51</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D252" s="3">
+      <c r="D253" s="3">
         <v>1320</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F252" s="3">
+      <c r="F253" s="3">
         <v>1320</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="G253" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="H252" s="1" t="s">
+      <c r="H253" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="I252">
+      <c r="I253">
         <v>1320</v>
       </c>
-      <c r="J252" t="s">
+      <c r="J253" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253" s="11">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="11">
         <v>1394</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B254" s="1">
         <v>50</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="D253" s="11">
+      <c r="D254" s="11">
         <v>1394</v>
       </c>
-      <c r="E253" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="F253" s="11">
+      <c r="F254" s="11">
         <v>1394</v>
       </c>
-      <c r="G253" s="10">
-        <v>0</v>
-      </c>
-      <c r="H253" s="1" t="s">
+      <c r="G254" s="10">
+        <v>0</v>
+      </c>
+      <c r="H254" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="I253">
+      <c r="I254">
         <v>1394</v>
       </c>
-      <c r="J253" t="s">
+      <c r="J254" t="s">
         <v>841</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
-        <v>104</v>
-      </c>
-      <c r="B254" s="1">
-        <v>53</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D254" s="3">
-        <v>104</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F254" s="3">
-        <v>104</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I254">
-        <v>1060</v>
-      </c>
-      <c r="J254" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -12642,84 +12645,84 @@
         <v>104</v>
       </c>
       <c r="G255" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I255">
+        <v>1060</v>
+      </c>
+      <c r="J255" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>104</v>
+      </c>
+      <c r="B256" s="1">
+        <v>53</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D256" s="3">
+        <v>104</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F256" s="3">
+        <v>104</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H255" s="1" t="s">
+      <c r="H256" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="I255">
+      <c r="I256">
         <v>1073</v>
       </c>
-      <c r="J255" t="s">
+      <c r="J256" t="s">
         <v>483</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
-        <v>11</v>
-      </c>
-      <c r="B256" s="1">
-        <v>20</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D256" s="2">
-        <v>11</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F256" s="2">
-        <v>11</v>
-      </c>
-      <c r="G256" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I256">
-        <v>103</v>
-      </c>
-      <c r="J256" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B257" s="1">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>228</v>
+        <v>30</v>
       </c>
       <c r="D257" s="2">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="F257" s="2">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="I257">
-        <v>1072</v>
+        <v>103</v>
       </c>
       <c r="J257" t="s">
-        <v>482</v>
+        <v>306</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
+      <c r="A258" s="2">
         <v>104</v>
       </c>
       <c r="B258" s="1">
@@ -12728,53 +12731,85 @@
       <c r="C258" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="2">
         <v>104</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F258" s="1">
+      <c r="F258" s="2">
         <v>104</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I258">
-        <v>1051</v>
+        <v>1072</v>
       </c>
       <c r="J258" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
+        <v>104</v>
+      </c>
+      <c r="B259" s="1">
+        <v>53</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D259" s="1">
+        <v>104</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F259" s="1">
+        <v>104</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="I259">
+        <v>1051</v>
+      </c>
+      <c r="J259" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
         <v>49</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B260" s="1">
         <v>49</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D260" s="1">
         <v>49</v>
       </c>
-      <c r="F259" s="1">
+      <c r="F260" s="1">
         <v>49</v>
       </c>
-      <c r="I259">
+      <c r="I260">
         <v>49</v>
       </c>
-      <c r="J259" s="1" t="s">
+      <c r="J260" s="1" t="s">
         <v>1223</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J258" xr:uid="{BB9E1084-CF59-4F52-88B5-5987CE9275A4}"/>
+  <autoFilter ref="A1:J260" xr:uid="{BB9E1084-CF59-4F52-88B5-5987CE9275A4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16707,9 +16742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1974D1-9441-4C55-ABDF-6682BC43D2CD}">
   <dimension ref="A1:E269"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView topLeftCell="A248" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Estandarización.xlsx
+++ b/Estandarización.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E2D0A8-E1A0-4122-901E-863229C812AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A5C5BC-C156-4679-BC19-0585361CBE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glosas QV a Tableau" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Clasificacion sigfe" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Clasificacion sigfe'!$A$1:$E$269</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Clasificacion sigfe'!$A$1:$E$270</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Glosas QV a Tableau'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja1!$A$1:$B$487</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SS y Establ QV a Tableau'!$A$1:$J$260</definedName>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3323" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="1228">
   <si>
     <t>Glosas</t>
   </si>
@@ -3736,6 +3737,15 @@
   </si>
   <si>
     <t>104005 Hospital Ancud</t>
+  </si>
+  <si>
+    <t>49 Programa Contingencias Operacionales</t>
+  </si>
+  <si>
+    <t>21 GASTOS EN PERSONAL01 Personal de Planta004 Remuneraciones Variables007 Comisiones de Servicios en el Exterior03 Comisiones de Servicios en el Exterior Ley N°19.664</t>
+  </si>
+  <si>
+    <t>21 GASTOS EN PERSONAL01 Personal de Planta005 Aguinaldos y Bonos001 Aguinaldos01 Aguinaldo Planta L 15076</t>
   </si>
 </sst>
 </file>
@@ -4214,8 +4224,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4411,7 +4421,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4480,9 +4490,9 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:J260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E261" sqref="E261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12797,6 +12807,9 @@
       </c>
       <c r="D260" s="1">
         <v>49</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1225</v>
       </c>
       <c r="F260" s="1">
         <v>49</v>
@@ -16740,9 +16753,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1974D1-9441-4C55-ABDF-6682BC43D2CD}">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView topLeftCell="A248" workbookViewId="0"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21326,8 +21341,42 @@
         <v>845</v>
       </c>
     </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B270" s="1">
+        <v>0</v>
+      </c>
+      <c r="C270" s="1">
+        <v>0</v>
+      </c>
+      <c r="D270" s="1">
+        <v>0</v>
+      </c>
+      <c r="E270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D271" s="1">
+        <v>0</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E269" xr:uid="{F2E31D62-5E22-45D1-B72B-3EAAAA099DBD}"/>
+  <autoFilter ref="A1:E270" xr:uid="{F2E31D62-5E22-45D1-B72B-3EAAAA099DBD}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Estandarización.xlsx
+++ b/Estandarización.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A5C5BC-C156-4679-BC19-0585361CBE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77117A85-292E-400D-8929-44E8F169358A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Glosas QV a Tableau" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,10 @@
     <sheet name="Clasificacion sigfe" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Clasificacion sigfe'!$A$1:$E$270</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Clasificacion sigfe'!$A$1:$E$271</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Glosas QV a Tableau'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hoja1!$A$1:$B$487</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SS y Establ QV a Tableau'!$A$1:$J$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SS y Establ QV a Tableau'!$A$1:$J$261</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="1233">
   <si>
     <t>Glosas</t>
   </si>
@@ -3747,12 +3747,31 @@
   <si>
     <t>21 GASTOS EN PERSONAL01 Personal de Planta005 Aguinaldos y Bonos001 Aguinaldos01 Aguinaldo Planta L 15076</t>
   </si>
+  <si>
+    <t>Subsecretaría de Redes Asistenciales</t>
+  </si>
+  <si>
+    <t>Dotación máxima de personal</t>
+  </si>
+  <si>
+    <t>Convenio con personas naturales Nº de personas</t>
+  </si>
+  <si>
+    <t>Convenio con personas naturales M$</t>
+  </si>
+  <si>
+    <t>Capacitación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3794,6 +3813,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3911,10 +3944,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3941,8 +3975,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares 2" xfId="1" xr:uid="{D27BD52E-80D5-40E3-960C-7EEAAA24C01F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4222,10 +4258,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4406,9 +4442,29 @@
         <v>19</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="16" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>1232</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{BF29DDB3-C378-4D29-80C3-D293A560A188}">
-    <sortState ref="A2:B26">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
@@ -4421,7 +4477,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4488,11 +4544,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C68073C-7FC0-4F5F-8139-F598B8F4DC5B}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:J260"/>
+  <dimension ref="A1:J261"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E261" sqref="E261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12821,8 +12877,31 @@
         <v>1223</v>
       </c>
     </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>7</v>
+      </c>
+      <c r="B261" s="1">
+        <v>10</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D261" s="1">
+        <v>7</v>
+      </c>
+      <c r="F261" s="1">
+        <v>49</v>
+      </c>
+      <c r="I261">
+        <v>9703</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J260" xr:uid="{BB9E1084-CF59-4F52-88B5-5987CE9275A4}"/>
+  <autoFilter ref="A1:J261" xr:uid="{BB9E1084-CF59-4F52-88B5-5987CE9275A4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -16755,8 +16834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1974D1-9441-4C55-ABDF-6682BC43D2CD}">
   <dimension ref="A1:E271"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21376,7 +21455,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E270" xr:uid="{F2E31D62-5E22-45D1-B72B-3EAAAA099DBD}"/>
+  <autoFilter ref="A1:E271" xr:uid="{C55B75D3-F54C-467D-86BA-03A02D054C30}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
